--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261832.123780183</v>
+        <v>2337361.793444989</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>192.78229847458</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>245.7296093848288</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>235.7412200973001</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>146.4340874029168</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.8675249810888</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>99.66075074687589</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>233.2699379634752</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>253.5111876485553</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.6990597847458</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>277.5603804390635</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>259.786271891712</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.07598272309074</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>30.1418066070764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>67.54481623479278</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>155.8666995316644</v>
+        <v>146.250623977512</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.7490173809993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>49.12199829633357</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6907756126555</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.88884117514947</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>95.02525064967651</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>75.80960945454565</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.27984345364941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>126.5538980153446</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.063010891603867</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3597,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>118.4898845065148</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>209.1695767361638</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113201</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>33.35146980185851</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002205</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.6986484302235</v>
+        <v>94.16481274941241</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>455.6206844766171</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4524,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>1705.877315537685</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1336.914798597273</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>978.6490999905225</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172088</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172088</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1271.984870679802</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.048494833003</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1271.984870679802</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>513.840561024597</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>513.840561024597</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>513.840561024597</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.9274674422039</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.9274674422039</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>513.840561024597</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,13 +5035,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5048,43 +5050,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5230,19 +5232,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>701.7253661765918</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>447.040877970705</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="C16" t="n">
-        <v>272.964375390212</v>
+        <v>278.0813692124198</v>
       </c>
       <c r="D16" t="n">
-        <v>272.964375390212</v>
+        <v>278.0813692124198</v>
       </c>
       <c r="E16" t="n">
-        <v>272.964375390212</v>
+        <v>278.0813692124198</v>
       </c>
       <c r="F16" t="n">
-        <v>272.964375390212</v>
+        <v>278.0813692124198</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>278.0813692124198</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>127.663360760363</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>447.0175521403266</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,7 +5539,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.8104215925219</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1430.689183452051</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1430.689183452051</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1141.560544665609</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>886.8760564597223</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>597.4588864227617</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>597.4588864227617</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.4588864227617</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1341.475159919858</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.346521133416</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V22" t="n">
-        <v>1052.346521133416</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W22" t="n">
-        <v>762.9293510964552</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X22" t="n">
-        <v>762.9293510964552</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.1367719529251</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5971,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028556</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4241.186579017402</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C25" t="n">
-        <v>4072.250396089494</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D25" t="n">
-        <v>3922.133756677159</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094765</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808406</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>4606.170084808406</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X25" t="n">
-        <v>4606.170084808406</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y25" t="n">
-        <v>4385.377505664876</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,31 +6247,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>955.1031435655738</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>786.1669606376669</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>636.0503212253311</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655738</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X28" t="n">
-        <v>955.1031435655738</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y28" t="n">
-        <v>955.1031435655738</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>678.2225136306376</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="C34" t="n">
-        <v>509.2863307027308</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4784.279209928893</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4784.279209928893</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4560.493794718399</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4271.365155931957</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>4271.365155931957</v>
       </c>
       <c r="W34" t="n">
-        <v>955.1031435655738</v>
+        <v>3981.947985894996</v>
       </c>
       <c r="X34" t="n">
-        <v>955.1031435655738</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.8709784608774</v>
+        <v>3753.958434996979</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,61 +6925,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.9624052601988</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="C37" t="n">
-        <v>372.9624052601988</v>
+        <v>103.3413448861483</v>
       </c>
       <c r="D37" t="n">
-        <v>372.9624052601988</v>
+        <v>103.3413448861483</v>
       </c>
       <c r="E37" t="n">
-        <v>225.0493116778057</v>
+        <v>103.3413448861483</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>103.3413448861483</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273991</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W37" t="n">
-        <v>554.6108700904385</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X37" t="n">
-        <v>554.6108700904385</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.6108700904385</v>
+        <v>453.925992644295</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>3443.999848753675</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>3751.319982033637</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870685</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870685</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870685</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870685</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870685</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U40" t="n">
-        <v>752.8533410811859</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="V40" t="n">
-        <v>498.168852875299</v>
+        <v>955.1031435655765</v>
       </c>
       <c r="W40" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286159</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305986</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870685</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I42" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7634,22 +7636,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7761,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>820.5263570570736</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X46" t="n">
-        <v>592.5368061590563</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.0432218861032</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>85.30006332127829</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776703</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298571</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>26.45108050686531</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>141.4175857402869</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>80.27743885719559</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3759937488105</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>65.68086152672487</v>
+        <v>75.29693708087726</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.08296280093799</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>99.79183007120255</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>17.7431870339137</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8109177748187</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.7266318430629</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>130.6844047393606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>34.15474294924715</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.3048098984454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>18.86715000758663</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>160.4305575717737</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686277</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>77.06777566241351</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>77.06777566241348</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.3938331833827</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.88600492187126</v>
+        <v>124.4198406026824</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
         <v>566992.1366196779</v>
@@ -26335,22 +26337,22 @@
         <v>566992.1366196783</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196783</v>
       </c>
       <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196774</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="O2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196781</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.020235004034475e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
@@ -26430,16 +26432,16 @@
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773396</v>
@@ -26451,13 +26453,13 @@
         <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773385</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773398</v>
+        <v>36432.48351773385</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834771</v>
+        <v>-260920.3609834769</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310673</v>
+        <v>329047.5182310672</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310673</v>
+        <v>329047.5182310672</v>
       </c>
       <c r="E6" t="n">
-        <v>-86587.70932366885</v>
+        <v>-86587.70932366872</v>
       </c>
       <c r="F6" t="n">
+        <v>438572.3271532271</v>
+      </c>
+      <c r="G6" t="n">
         <v>438572.3271532273</v>
-      </c>
-      <c r="G6" t="n">
-        <v>438572.3271532275</v>
       </c>
       <c r="H6" t="n">
         <v>438572.3271532278</v>
@@ -26543,25 +26545,25 @@
         <v>438572.3271532278</v>
       </c>
       <c r="J6" t="n">
-        <v>262149.107960634</v>
+        <v>262149.1079606349</v>
       </c>
       <c r="K6" t="n">
-        <v>438572.3271532272</v>
+        <v>438572.3271532275</v>
       </c>
       <c r="L6" t="n">
-        <v>438572.3271532272</v>
+        <v>438572.3271532278</v>
       </c>
       <c r="M6" t="n">
-        <v>303771.3119193895</v>
+        <v>303771.3119193902</v>
       </c>
       <c r="N6" t="n">
+        <v>438572.3271532262</v>
+      </c>
+      <c r="O6" t="n">
         <v>438572.3271532274</v>
       </c>
-      <c r="O6" t="n">
-        <v>438572.3271532275</v>
-      </c>
       <c r="P6" t="n">
-        <v>438572.3271532275</v>
+        <v>438572.3271532285</v>
       </c>
     </row>
   </sheetData>
@@ -26771,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26993,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-4.997661160822555e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>172.4905932964276</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78.1931633795283</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>218.8388043680907</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.06284509117302</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>118.9239026052189</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>148.6604321087866</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>116.2199130299138</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>38.61074247430508</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>8.962617897527537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35416,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35489,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
@@ -36437,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36448,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36677,10 +36679,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,19 +36922,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>418.4946367192911</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336952</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350134</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2337361.793444989</v>
+        <v>2330344.778553277</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9821547.104690999</v>
+        <v>9821547.104690997</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
-        <v>245.7296093848288</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.04168889956937</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>235.7412200973001</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>342.8675249810888</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>116.2349668968046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>42.9842526402019</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.66075074687589</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>233.2699379634752</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.6990597847458</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182176</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.786271891712</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>153.3587278762584</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784698</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>30.1418066070764</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>57.56452900498746</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>146.250623977512</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>36.88713826833454</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>49.12199829633357</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>14.73664328357051</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>45.88884117514947</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>258.1442591749531</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>75.80960945454565</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.063010891603867</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>118.4898845065148</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002205</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.16481274941241</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276337</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>469.5440885380262</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>455.6206844766171</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>398.5674257938016</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>398.5674257938016</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537685</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.914798597273</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D5" t="n">
-        <v>978.6490999905225</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1000.301752183305</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>589.3158473936974</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>171.3520392918842</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>171.3520392918842</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541694</v>
+        <v>684.7105471961293</v>
       </c>
       <c r="W7" t="n">
-        <v>154.6104068172088</v>
+        <v>684.7105471961293</v>
       </c>
       <c r="X7" t="n">
-        <v>154.6104068172088</v>
+        <v>456.720996298112</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679802</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.984870679802</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.984870679802</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655614</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679802</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.840561024597</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>513.840561024597</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>513.840561024597</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>365.9274674422039</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>365.9274674422039</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>713.5778697505008</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>544.6416868225939</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>701.7253661765918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>447.040877970705</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>447.040877970705</v>
+        <v>1344.008464622288</v>
       </c>
       <c r="X13" t="n">
-        <v>447.040877970705</v>
+        <v>1116.018913724271</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>895.2263345807405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5281,46 +5281,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5366,13 +5366,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447.0175521403266</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>278.0813692124198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>278.0813692124198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>278.0813692124198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>278.0813692124198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>278.0813692124198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>127.663360760363</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>447.0175521403266</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.0175521403266</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1151.268357465867</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1151.268357465867</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>896.5838692599799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,13 +6010,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>613.8011874802282</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C25" t="n">
-        <v>444.8650045523214</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="D25" t="n">
-        <v>294.7483651399856</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="E25" t="n">
-        <v>146.8352715575925</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="F25" t="n">
-        <v>146.8352715575925</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>146.8352715575925</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.242231453998</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y25" t="n">
-        <v>795.449652310468</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1484.03077229167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.03077229167</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.03077229167</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441.900558318119</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.900558318119</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,13 +6788,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4784.279209928893</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4784.279209928893</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4560.493794718399</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4271.365155931957</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4271.365155931957</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>3981.947985894996</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>272.2775278140552</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>103.3413448861483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>103.3413448861483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>103.3413448861483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>103.3413448861483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247858</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247858</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>674.7185717878251</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X37" t="n">
-        <v>674.7185717878251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>453.925992644295</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3443.999848753675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3751.319982033637</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>216.9038434870685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>216.9038434870685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>216.9038434870685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>216.9038434870685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>216.9038434870685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7332,52 +7332,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557905</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557905</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771463</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655765</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870685</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7475,37 +7475,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471205</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557905</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7830,25 +7830,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776757</v>
+        <v>277.6717966208063</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987297522</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776703</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987297522</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776707</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>26.45108050686531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>133.1642704603326</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>80.27743885719559</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>51.71984429841029</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>88.86943364158171</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>75.29693708087726</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>108.5339097545967</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.79183007120255</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,13 +24420,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>206.8109177748187</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>102.7266318430629</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>28.09309322362424</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.15474294924715</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>160.4305575717737</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>48.00368395686277</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642719</v>
+        <v>104.8566210678471</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.3938331833827</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4198406026824</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894613</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="G2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.136619678</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.020235004034475e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773388</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
@@ -26444,22 +26444,22 @@
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773385</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773385</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834769</v>
+        <v>-260920.3609834771</v>
       </c>
       <c r="C6" t="n">
         <v>329047.5182310672</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310672</v>
+        <v>329047.5182310677</v>
       </c>
       <c r="E6" t="n">
-        <v>-86587.70932366872</v>
+        <v>-87562.30058339055</v>
       </c>
       <c r="F6" t="n">
-        <v>438572.3271532271</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="G6" t="n">
-        <v>438572.3271532273</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="H6" t="n">
-        <v>438572.3271532278</v>
+        <v>437597.735893506</v>
       </c>
       <c r="I6" t="n">
-        <v>438572.3271532278</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="J6" t="n">
-        <v>262149.1079606349</v>
+        <v>261174.5167009128</v>
       </c>
       <c r="K6" t="n">
-        <v>438572.3271532275</v>
+        <v>437597.7358935055</v>
       </c>
       <c r="L6" t="n">
-        <v>438572.3271532278</v>
+        <v>437597.7358935053</v>
       </c>
       <c r="M6" t="n">
-        <v>303771.3119193902</v>
+        <v>302796.7206596683</v>
       </c>
       <c r="N6" t="n">
-        <v>438572.3271532262</v>
+        <v>437597.7358935057</v>
       </c>
       <c r="O6" t="n">
-        <v>438572.3271532274</v>
+        <v>437597.7358935057</v>
       </c>
       <c r="P6" t="n">
-        <v>438572.3271532285</v>
+        <v>437597.7358935057</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.997661160822555e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
-        <v>78.1931633795283</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>117.2681133594815</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>50.78177823929093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>39.06284509117302</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>35.69634934805667</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>209.1533906836261</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>118.9239026052189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>148.6604321087866</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.61074247430508</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281419</v>
+        <v>588.0961736712726</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336952</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.502597509196</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2330344.778553277</v>
+        <v>2335284.04140231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9821547.104690997</v>
+        <v>9821547.104690999</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475058</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>89.06935913568219</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>332.745384931298</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2349668968046</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1077,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>42.9842526402019</v>
+        <v>42.98425264020213</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.255748559886</v>
+        <v>325.2557485598878</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586834</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634322</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182176</v>
+        <v>44.21256991826677</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>153.3587278762584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869253</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>173.9898110906269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.900916560956625</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>57.56452900498746</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>36.88713826833454</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>258.1442591749531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>26.9744467395492</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>5.562624396424917</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>160.8722505808164</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2552.151351916713</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2333.516684888776</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2079.754899526868</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1748.692012183297</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1395.923356913183</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1022.457598652103</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.090004781549</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.090004781549</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D5" t="n">
-        <v>1386.090004781549</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.301752183305</v>
+        <v>550.4609080000318</v>
       </c>
       <c r="F5" t="n">
-        <v>589.3158473936974</v>
+        <v>543.5154072508284</v>
       </c>
       <c r="G5" t="n">
-        <v>171.3520392918842</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>171.3520392918842</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4725,40 +4725,40 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
         <v>684.7105471961293</v>
@@ -4792,58 +4792,58 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.5778697505008</v>
+        <v>310.8124359217956</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225939</v>
+        <v>141.8762529938886</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.008464622288</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.018913724271</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.2263345807405</v>
+        <v>492.4609007520353</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5284,40 +5284,40 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,16 +5582,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,10 +5600,10 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N18" t="n">
         <v>1296.555866665167</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>268.0733921265328</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>99.13720919862587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>449.7218569567725</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>155.3630803542126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,10 +6004,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>302.6521487650456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>302.6521487650456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>302.6521487650456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,7 +6311,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M27" t="n">
         <v>1503.408902298185</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6426,10 +6426,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,13 +6551,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1038.244483529058</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>783.5599953231707</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>494.1428252862101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,13 +6788,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,13 +6958,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954967</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,16 +7189,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.8359039819272</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C43" t="n">
-        <v>102.8359039819272</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>102.8359039819272</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>102.8359039819272</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>102.8359039819272</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>102.8359039819272</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169051</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799445</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X43" t="n">
-        <v>102.8359039819272</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.8359039819272</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,19 +7824,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>288.4091825776751</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503166</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M27" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.4029030999456</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1642704603326</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.74113413690273</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>51.71984429841029</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>164.592651902421</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>88.86943364158171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>108.5339097545967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>28.09309322362424</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424357</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.8566210678471</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>91.2653927430116</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837254.2622894613</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894613</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571278</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773388</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773392</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="G4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="H4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="J4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.4835177339</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834771</v>
+        <v>-260920.360983477</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310672</v>
+        <v>329047.5182310673</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310677</v>
+        <v>329047.5182310673</v>
       </c>
       <c r="E6" t="n">
-        <v>-87562.30058339055</v>
+        <v>-86685.16844964029</v>
       </c>
       <c r="F6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272553</v>
       </c>
       <c r="G6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272552</v>
       </c>
       <c r="H6" t="n">
-        <v>437597.735893506</v>
+        <v>438474.8680272553</v>
       </c>
       <c r="I6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272552</v>
       </c>
       <c r="J6" t="n">
-        <v>261174.5167009128</v>
+        <v>262051.648834662</v>
       </c>
       <c r="K6" t="n">
-        <v>437597.7358935055</v>
+        <v>438474.868027255</v>
       </c>
       <c r="L6" t="n">
-        <v>437597.7358935053</v>
+        <v>438474.8680272553</v>
       </c>
       <c r="M6" t="n">
-        <v>302796.7206596683</v>
+        <v>303673.8527934184</v>
       </c>
       <c r="N6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272552</v>
       </c>
       <c r="O6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272549</v>
       </c>
       <c r="P6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272551</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328917</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>85.34635367328931</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>81.03878508949697</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>35.69634934805667</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>209.1533906836261</v>
+        <v>209.1533906836259</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858303</v>
+        <v>44.47535211858127</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.105142606069</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866263</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8335596281414</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914248</v>
+        <v>516.7753531914243</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M27" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
